--- a/data/pca/factorExposure/factorExposure_2014-08-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.002931382265412358</v>
+        <v>0.01889049258839268</v>
       </c>
       <c r="C2">
-        <v>-0.1224226430207727</v>
+        <v>-0.06740844121579777</v>
       </c>
       <c r="D2">
-        <v>-0.01842901791070042</v>
+        <v>-0.03098106299317529</v>
       </c>
       <c r="E2">
-        <v>0.2217345022308167</v>
+        <v>-0.01233441313573901</v>
       </c>
       <c r="F2">
-        <v>-0.04675085199571432</v>
+        <v>0.05179607993831106</v>
       </c>
       <c r="G2">
-        <v>0.07925745818216906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1565543354179895</v>
+      </c>
+      <c r="H2">
+        <v>0.03707817419484695</v>
+      </c>
+      <c r="I2">
+        <v>-0.01302489489409179</v>
+      </c>
+      <c r="J2">
+        <v>-0.1236599102231305</v>
+      </c>
+      <c r="K2">
+        <v>0.04278144789827134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.0153865132871911</v>
+        <v>0.01863977384471806</v>
       </c>
       <c r="C4">
-        <v>-0.1731603236441832</v>
+        <v>-0.1424714478592472</v>
       </c>
       <c r="D4">
-        <v>-0.03542660574093213</v>
+        <v>-0.06562369429481303</v>
       </c>
       <c r="E4">
-        <v>0.05169622739320244</v>
+        <v>-0.002677600941571674</v>
       </c>
       <c r="F4">
-        <v>0.06195657092154281</v>
+        <v>0.06337695737310717</v>
       </c>
       <c r="G4">
-        <v>-0.01329526743780389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.02751177175401248</v>
+      </c>
+      <c r="H4">
+        <v>-0.011745265814487</v>
+      </c>
+      <c r="I4">
+        <v>0.0578984210972134</v>
+      </c>
+      <c r="J4">
+        <v>-0.09275841732250868</v>
+      </c>
+      <c r="K4">
+        <v>-0.01490679784952908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02559699207639822</v>
+        <v>0.03982103015139673</v>
       </c>
       <c r="C6">
-        <v>-0.07482064412016419</v>
+        <v>-0.08519117215515193</v>
       </c>
       <c r="D6">
-        <v>-0.05177107996476474</v>
+        <v>-0.02798308358207565</v>
       </c>
       <c r="E6">
-        <v>0.05665024230785674</v>
+        <v>0.02377691811036304</v>
       </c>
       <c r="F6">
-        <v>0.002029529665661908</v>
+        <v>-0.02414665267282141</v>
       </c>
       <c r="G6">
-        <v>-0.05434988110219918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04690231510480723</v>
+      </c>
+      <c r="H6">
+        <v>-0.05374585179313545</v>
+      </c>
+      <c r="I6">
+        <v>0.05414913513592725</v>
+      </c>
+      <c r="J6">
+        <v>0.01647025202178534</v>
+      </c>
+      <c r="K6">
+        <v>0.02974489620038382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.007097160809158052</v>
+        <v>0.01889034183245841</v>
       </c>
       <c r="C7">
-        <v>-0.08074071024022141</v>
+        <v>-0.0715327348531688</v>
       </c>
       <c r="D7">
-        <v>-0.04035572562148666</v>
+        <v>-0.03326861137222639</v>
       </c>
       <c r="E7">
-        <v>0.01016399619046219</v>
+        <v>0.005123683357985261</v>
       </c>
       <c r="F7">
-        <v>0.02273779460602619</v>
+        <v>0.01200097651434393</v>
       </c>
       <c r="G7">
-        <v>-0.04603380788660365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01035077113541692</v>
+      </c>
+      <c r="H7">
+        <v>-0.02246036407633488</v>
+      </c>
+      <c r="I7">
+        <v>0.05504617375467886</v>
+      </c>
+      <c r="J7">
+        <v>-0.09630864966831502</v>
+      </c>
+      <c r="K7">
+        <v>0.0314723631375633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01280781096925357</v>
+        <v>0.001000766148679276</v>
       </c>
       <c r="C8">
-        <v>-0.07240247530994591</v>
+        <v>-0.06126701868397243</v>
       </c>
       <c r="D8">
-        <v>-0.03357117242812493</v>
+        <v>-0.04817563829920836</v>
       </c>
       <c r="E8">
-        <v>0.07045331677605154</v>
+        <v>0.03597231628371367</v>
       </c>
       <c r="F8">
-        <v>0.01794013440318633</v>
+        <v>0.02883656079089622</v>
       </c>
       <c r="G8">
-        <v>0.01592350941604949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05923962813613327</v>
+      </c>
+      <c r="H8">
+        <v>0.01355898153391659</v>
+      </c>
+      <c r="I8">
+        <v>0.05554678783401011</v>
+      </c>
+      <c r="J8">
+        <v>-0.01141340629606522</v>
+      </c>
+      <c r="K8">
+        <v>-0.005639929210575192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.009502219939110145</v>
+        <v>0.01326379653808351</v>
       </c>
       <c r="C9">
-        <v>-0.1234643989903138</v>
+        <v>-0.1007673930240035</v>
       </c>
       <c r="D9">
-        <v>-0.04939009147685978</v>
+        <v>-0.04120910288190268</v>
       </c>
       <c r="E9">
-        <v>0.01048957765981809</v>
+        <v>-0.02177708499189192</v>
       </c>
       <c r="F9">
-        <v>0.003507665870524706</v>
+        <v>0.03174793161664767</v>
       </c>
       <c r="G9">
-        <v>-0.02178278554358047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02044560619675923</v>
+      </c>
+      <c r="H9">
+        <v>0.006250607537015892</v>
+      </c>
+      <c r="I9">
+        <v>0.05964529662428901</v>
+      </c>
+      <c r="J9">
+        <v>-0.09616989538238205</v>
+      </c>
+      <c r="K9">
+        <v>0.01474265612802543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2610703708093749</v>
+        <v>0.2459770112408234</v>
       </c>
       <c r="C10">
-        <v>0.07203892902080167</v>
+        <v>0.09344058659755974</v>
       </c>
       <c r="D10">
-        <v>0.02487642668035163</v>
+        <v>0.006122357946197031</v>
       </c>
       <c r="E10">
-        <v>-0.03392880172313761</v>
+        <v>0.05663905755937409</v>
       </c>
       <c r="F10">
-        <v>0.01872125299878336</v>
+        <v>-0.01399147693643945</v>
       </c>
       <c r="G10">
-        <v>0.008363353821543353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01716331576449283</v>
+      </c>
+      <c r="H10">
+        <v>-0.02752004926903166</v>
+      </c>
+      <c r="I10">
+        <v>0.04209843162711915</v>
+      </c>
+      <c r="J10">
+        <v>-0.01719882817232569</v>
+      </c>
+      <c r="K10">
+        <v>-0.1284794734384002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.005663906916196602</v>
+        <v>0.01695522205190131</v>
       </c>
       <c r="C11">
-        <v>-0.0703797626100596</v>
+        <v>-0.0794744500555909</v>
       </c>
       <c r="D11">
-        <v>-0.02935648807721457</v>
+        <v>-0.03866447711153695</v>
       </c>
       <c r="E11">
-        <v>-0.02241943339995901</v>
+        <v>-0.01306033651916902</v>
       </c>
       <c r="F11">
-        <v>0.01083072323672658</v>
+        <v>0.002812825698238486</v>
       </c>
       <c r="G11">
-        <v>-0.03018754379757656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01217481461298551</v>
+      </c>
+      <c r="H11">
+        <v>-0.002791663027123253</v>
+      </c>
+      <c r="I11">
+        <v>0.02258752869824409</v>
+      </c>
+      <c r="J11">
+        <v>-0.02493735201089612</v>
+      </c>
+      <c r="K11">
+        <v>0.02542199996892235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.003129045996427106</v>
+        <v>0.01687787834678057</v>
       </c>
       <c r="C12">
-        <v>-0.0487504131069092</v>
+        <v>-0.05355801731586202</v>
       </c>
       <c r="D12">
-        <v>-0.03785291037921862</v>
+        <v>-0.02685569417066605</v>
       </c>
       <c r="E12">
-        <v>-0.01523336226112831</v>
+        <v>-0.01172814103778567</v>
       </c>
       <c r="F12">
-        <v>-0.01556948318793978</v>
+        <v>-0.01534125003237233</v>
       </c>
       <c r="G12">
-        <v>-0.04014763337145872</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.003257990623466587</v>
+      </c>
+      <c r="H12">
+        <v>-0.01856669080552484</v>
+      </c>
+      <c r="I12">
+        <v>0.02798748808643507</v>
+      </c>
+      <c r="J12">
+        <v>-0.01834758181832792</v>
+      </c>
+      <c r="K12">
+        <v>0.0102668980476146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01052211042673134</v>
+        <v>0.006101467189479471</v>
       </c>
       <c r="C13">
-        <v>-0.1240876760708426</v>
+        <v>-0.1089026084963371</v>
       </c>
       <c r="D13">
-        <v>-0.07823600640556293</v>
+        <v>-0.04369397536745983</v>
       </c>
       <c r="E13">
-        <v>0.05389666808304946</v>
+        <v>-0.009837156919833546</v>
       </c>
       <c r="F13">
-        <v>-0.05696999123196456</v>
+        <v>-0.01358999368542068</v>
       </c>
       <c r="G13">
-        <v>-0.112100022522702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1619195342976759</v>
+      </c>
+      <c r="H13">
+        <v>-0.1005412767258289</v>
+      </c>
+      <c r="I13">
+        <v>0.006758636821359275</v>
+      </c>
+      <c r="J13">
+        <v>-0.2103536828435367</v>
+      </c>
+      <c r="K13">
+        <v>-0.1336306351284101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.008865332361153801</v>
+        <v>0.02065279871285268</v>
       </c>
       <c r="C14">
-        <v>-0.07854585462873265</v>
+        <v>-0.07347340263160937</v>
       </c>
       <c r="D14">
-        <v>-0.04532937288091152</v>
+        <v>-0.04823245218490371</v>
       </c>
       <c r="E14">
-        <v>0.02387294873951354</v>
+        <v>0.004039614758924589</v>
       </c>
       <c r="F14">
-        <v>-0.03711394400515796</v>
+        <v>-0.03161098794792364</v>
       </c>
       <c r="G14">
-        <v>-0.05657523332202231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.02807717461314221</v>
+      </c>
+      <c r="H14">
+        <v>-0.07746943416243955</v>
+      </c>
+      <c r="I14">
+        <v>0.1380347543719237</v>
+      </c>
+      <c r="J14">
+        <v>-0.1439994981994002</v>
+      </c>
+      <c r="K14">
+        <v>0.04025610237232106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.003785992995690387</v>
+        <v>0.004459090688223109</v>
       </c>
       <c r="C15">
-        <v>-0.0767764027439404</v>
+        <v>-0.07103024513014104</v>
       </c>
       <c r="D15">
-        <v>-0.02914610028077375</v>
+        <v>-0.03119705471821117</v>
       </c>
       <c r="E15">
-        <v>0.04062237218935208</v>
+        <v>0.005781631436552629</v>
       </c>
       <c r="F15">
-        <v>0.02076020716093539</v>
+        <v>0.02907542061838348</v>
       </c>
       <c r="G15">
-        <v>-0.0286358706912368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.01784325157919268</v>
+      </c>
+      <c r="H15">
+        <v>-0.02137812707877357</v>
+      </c>
+      <c r="I15">
+        <v>0.06235197416878092</v>
+      </c>
+      <c r="J15">
+        <v>-0.05370848016904188</v>
+      </c>
+      <c r="K15">
+        <v>0.03879855159963043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.008277330784353694</v>
+        <v>0.01611990524568964</v>
       </c>
       <c r="C16">
-        <v>-0.05710395974814918</v>
+        <v>-0.06072071446779605</v>
       </c>
       <c r="D16">
-        <v>-0.02638608990465497</v>
+        <v>-0.02699823280379903</v>
       </c>
       <c r="E16">
-        <v>-0.01607760810919271</v>
+        <v>-0.01118571102828502</v>
       </c>
       <c r="F16">
-        <v>-0.001844666723412885</v>
+        <v>0.0001825189825025104</v>
       </c>
       <c r="G16">
-        <v>-0.01691214419362427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.00714552721915405</v>
+      </c>
+      <c r="H16">
+        <v>-0.00234891801523609</v>
+      </c>
+      <c r="I16">
+        <v>0.01573686246247908</v>
+      </c>
+      <c r="J16">
+        <v>-0.01762725242344203</v>
+      </c>
+      <c r="K16">
+        <v>0.01903561745747064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.009593814583917608</v>
+        <v>0.01484920348858862</v>
       </c>
       <c r="C20">
-        <v>-0.09524906241971981</v>
+        <v>-0.08505302137159321</v>
       </c>
       <c r="D20">
-        <v>-0.04106177315192833</v>
+        <v>-0.02624388146940247</v>
       </c>
       <c r="E20">
-        <v>-0.03499406930394228</v>
+        <v>0.01165775377437347</v>
       </c>
       <c r="F20">
-        <v>-0.003765908869917349</v>
+        <v>0.01252094013409477</v>
       </c>
       <c r="G20">
-        <v>-0.07695294396972489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01989293939190973</v>
+      </c>
+      <c r="H20">
+        <v>-0.02997426331980856</v>
+      </c>
+      <c r="I20">
+        <v>0.0608724656144347</v>
+      </c>
+      <c r="J20">
+        <v>-0.04876704416328907</v>
+      </c>
+      <c r="K20">
+        <v>0.01725670690450924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.001521521034346093</v>
+        <v>0.01452292051024013</v>
       </c>
       <c r="C21">
-        <v>-0.08037691712805878</v>
+        <v>-0.0679969671338754</v>
       </c>
       <c r="D21">
-        <v>0.01757034124399112</v>
+        <v>-0.01868706448716912</v>
       </c>
       <c r="E21">
-        <v>0.04028432283436961</v>
+        <v>0.01914780405257156</v>
       </c>
       <c r="F21">
-        <v>-0.08556392516456592</v>
+        <v>-0.06296207735823421</v>
       </c>
       <c r="G21">
-        <v>-0.004173079443715861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.07322513946186651</v>
+      </c>
+      <c r="H21">
+        <v>-0.01110358255616907</v>
+      </c>
+      <c r="I21">
+        <v>0.07765211589969617</v>
+      </c>
+      <c r="J21">
+        <v>-0.1173815257263365</v>
+      </c>
+      <c r="K21">
+        <v>-0.002082238523013002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.008683529957811298</v>
+        <v>0.007761406471703734</v>
       </c>
       <c r="C22">
-        <v>-0.2350412843886337</v>
+        <v>-0.1701317146917555</v>
       </c>
       <c r="D22">
-        <v>0.09339507010557711</v>
+        <v>-0.02021538979715548</v>
       </c>
       <c r="E22">
-        <v>0.3274400523488267</v>
+        <v>0.04987307340445367</v>
       </c>
       <c r="F22">
-        <v>0.2954882704434485</v>
+        <v>0.3792476565111997</v>
       </c>
       <c r="G22">
-        <v>0.009525472653468424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.3520094116856598</v>
+      </c>
+      <c r="H22">
+        <v>-0.01877156039811242</v>
+      </c>
+      <c r="I22">
+        <v>-0.2682958947239424</v>
+      </c>
+      <c r="J22">
+        <v>0.2071772691967003</v>
+      </c>
+      <c r="K22">
+        <v>0.03074353242493555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.009707063448792987</v>
+        <v>0.01290436072544611</v>
       </c>
       <c r="C23">
-        <v>-0.2385311002596595</v>
+        <v>-0.173464311371059</v>
       </c>
       <c r="D23">
-        <v>0.09821853990278323</v>
+        <v>-0.01976191992491625</v>
       </c>
       <c r="E23">
-        <v>0.3217344740464148</v>
+        <v>0.04489191086726652</v>
       </c>
       <c r="F23">
-        <v>0.2909506072524497</v>
+        <v>0.3686995813119867</v>
       </c>
       <c r="G23">
-        <v>0.0107613382618336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.3431891687995323</v>
+      </c>
+      <c r="H23">
+        <v>-0.01796316820321205</v>
+      </c>
+      <c r="I23">
+        <v>-0.2519313621463734</v>
+      </c>
+      <c r="J23">
+        <v>0.1906348589639223</v>
+      </c>
+      <c r="K23">
+        <v>0.03516265582487422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.005500915414348564</v>
+        <v>0.01685059637075142</v>
       </c>
       <c r="C24">
-        <v>-0.06166780783917131</v>
+        <v>-0.06389527796251049</v>
       </c>
       <c r="D24">
-        <v>-0.04279667661434368</v>
+        <v>-0.04060263531719338</v>
       </c>
       <c r="E24">
-        <v>-0.01398055524490966</v>
+        <v>-0.01324231012844381</v>
       </c>
       <c r="F24">
-        <v>0.006893647546025139</v>
+        <v>0.004717958386822672</v>
       </c>
       <c r="G24">
-        <v>-0.04134387659241431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.006551246574866072</v>
+      </c>
+      <c r="H24">
+        <v>-0.01372436933637338</v>
+      </c>
+      <c r="I24">
+        <v>0.02743327223576922</v>
+      </c>
+      <c r="J24">
+        <v>-0.03403992117501328</v>
+      </c>
+      <c r="K24">
+        <v>0.02241025126620641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.005692124935919638</v>
+        <v>0.02083158024897803</v>
       </c>
       <c r="C25">
-        <v>-0.06787711528385861</v>
+        <v>-0.06783445375249571</v>
       </c>
       <c r="D25">
-        <v>-0.02047957755644342</v>
+        <v>-0.0331568159436653</v>
       </c>
       <c r="E25">
-        <v>-0.02006107364344241</v>
+        <v>-0.01666236641268985</v>
       </c>
       <c r="F25">
-        <v>0.0007170696096612098</v>
+        <v>0.007233315598285306</v>
       </c>
       <c r="G25">
-        <v>-0.04068714198609918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.005253213442547196</v>
+      </c>
+      <c r="H25">
+        <v>-0.005469843417278858</v>
+      </c>
+      <c r="I25">
+        <v>0.02606723987316891</v>
+      </c>
+      <c r="J25">
+        <v>-0.03170385095156956</v>
+      </c>
+      <c r="K25">
+        <v>0.01193134267845545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.01472879676074113</v>
+        <v>0.02186579540596455</v>
       </c>
       <c r="C26">
-        <v>-0.04654478291507301</v>
+        <v>-0.05453510920953657</v>
       </c>
       <c r="D26">
-        <v>-0.07878726427045908</v>
+        <v>-0.06177119791937108</v>
       </c>
       <c r="E26">
-        <v>-0.006919731767368774</v>
+        <v>-0.008915777856213367</v>
       </c>
       <c r="F26">
-        <v>-0.04631647711916659</v>
+        <v>0.005367581041846442</v>
       </c>
       <c r="G26">
-        <v>-0.05086644251055013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01190012311722849</v>
+      </c>
+      <c r="H26">
+        <v>0.01676007895541313</v>
+      </c>
+      <c r="I26">
+        <v>0.05380393508220527</v>
+      </c>
+      <c r="J26">
+        <v>-0.1115625959640301</v>
+      </c>
+      <c r="K26">
+        <v>0.05850542478239938</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3582519994246435</v>
+        <v>0.3090908748098311</v>
       </c>
       <c r="C28">
-        <v>0.08377903252909934</v>
+        <v>0.1129713791126336</v>
       </c>
       <c r="D28">
-        <v>0.02410449808888288</v>
+        <v>0.0340357499453138</v>
       </c>
       <c r="E28">
-        <v>-0.04515657662460829</v>
+        <v>0.01366740769365906</v>
       </c>
       <c r="F28">
-        <v>-0.03137358416327453</v>
+        <v>0.0150248352556884</v>
       </c>
       <c r="G28">
-        <v>0.08390625671669076</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.04579400996756094</v>
+      </c>
+      <c r="H28">
+        <v>0.1185746014026849</v>
+      </c>
+      <c r="I28">
+        <v>0.0262872970887537</v>
+      </c>
+      <c r="J28">
+        <v>-0.0483160787820261</v>
+      </c>
+      <c r="K28">
+        <v>-0.2124352723087757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.006779093622564052</v>
+        <v>0.01741218815716842</v>
       </c>
       <c r="C29">
-        <v>-0.0859358347414919</v>
+        <v>-0.08274206668678366</v>
       </c>
       <c r="D29">
-        <v>-0.04950630947302986</v>
+        <v>-0.05005575943968957</v>
       </c>
       <c r="E29">
-        <v>0.004269345683429314</v>
+        <v>-0.02102773142930793</v>
       </c>
       <c r="F29">
-        <v>-0.03775690727656988</v>
+        <v>-0.02794903575258423</v>
       </c>
       <c r="G29">
-        <v>-0.08774144140162353</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.0280343886966092</v>
+      </c>
+      <c r="H29">
+        <v>-0.1262417825212729</v>
+      </c>
+      <c r="I29">
+        <v>0.1926437476855621</v>
+      </c>
+      <c r="J29">
+        <v>-0.2025611078827968</v>
+      </c>
+      <c r="K29">
+        <v>0.03689801111496438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02065546764863904</v>
+        <v>0.03384128530132671</v>
       </c>
       <c r="C30">
-        <v>-0.1655871244257625</v>
+        <v>-0.1414177141670792</v>
       </c>
       <c r="D30">
-        <v>-0.06492171303797971</v>
+        <v>-0.05557532693679663</v>
       </c>
       <c r="E30">
-        <v>0.0437105395386021</v>
+        <v>0.01469344215479877</v>
       </c>
       <c r="F30">
-        <v>0.05124711552823106</v>
+        <v>0.045042051108365</v>
       </c>
       <c r="G30">
-        <v>-0.0442693883303235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.03285574419570096</v>
+      </c>
+      <c r="H30">
+        <v>-0.01800913950222332</v>
+      </c>
+      <c r="I30">
+        <v>0.04488721139612959</v>
+      </c>
+      <c r="J30">
+        <v>-0.01850156592572638</v>
+      </c>
+      <c r="K30">
+        <v>0.04196851440195958</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.003999498568186639</v>
+        <v>0.01444000429387375</v>
       </c>
       <c r="C31">
-        <v>-0.05220562316943415</v>
+        <v>-0.0772063963743975</v>
       </c>
       <c r="D31">
-        <v>-0.03435027997009169</v>
+        <v>-0.04161207553512596</v>
       </c>
       <c r="E31">
-        <v>-0.01853586588564039</v>
+        <v>0.0008780634173577956</v>
       </c>
       <c r="F31">
-        <v>-0.01029767012154809</v>
+        <v>0.004728836082105846</v>
       </c>
       <c r="G31">
-        <v>-0.003641125718014911</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.00314199021574405</v>
+      </c>
+      <c r="H31">
+        <v>0.02830073159300808</v>
+      </c>
+      <c r="I31">
+        <v>0.02789515758559289</v>
+      </c>
+      <c r="J31">
+        <v>-0.02557998072829126</v>
+      </c>
+      <c r="K31">
+        <v>0.0105471811990081</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01880903738199253</v>
+        <v>0.02220934845693168</v>
       </c>
       <c r="C32">
-        <v>-0.0737627767672675</v>
+        <v>-0.0542020079666622</v>
       </c>
       <c r="D32">
-        <v>-0.003212382270099028</v>
+        <v>-0.02555122119781884</v>
       </c>
       <c r="E32">
-        <v>0.1448927566697944</v>
+        <v>-0.01925566063417479</v>
       </c>
       <c r="F32">
-        <v>-0.01536657818397476</v>
+        <v>0.01377169083683425</v>
       </c>
       <c r="G32">
-        <v>-0.08591644166592102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.1136902422889124</v>
+      </c>
+      <c r="H32">
+        <v>-0.06303990746279879</v>
+      </c>
+      <c r="I32">
+        <v>0.07913208242301344</v>
+      </c>
+      <c r="J32">
+        <v>-0.1746659039371005</v>
+      </c>
+      <c r="K32">
+        <v>-0.2443407081616872</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.008481261119459469</v>
+        <v>0.01724591410042868</v>
       </c>
       <c r="C33">
-        <v>-0.09635278496634253</v>
+        <v>-0.1017133328395251</v>
       </c>
       <c r="D33">
-        <v>-0.06040738535354494</v>
+        <v>-0.05215708836087198</v>
       </c>
       <c r="E33">
-        <v>0.005224328470896288</v>
+        <v>0.008138813023290555</v>
       </c>
       <c r="F33">
-        <v>-0.001578279353746148</v>
+        <v>0.01982517041813293</v>
       </c>
       <c r="G33">
-        <v>-0.03800435664107604</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01030597550647905</v>
+      </c>
+      <c r="H33">
+        <v>-0.02170976645576196</v>
+      </c>
+      <c r="I33">
+        <v>0.03276365252276003</v>
+      </c>
+      <c r="J33">
+        <v>-0.0549459839881268</v>
+      </c>
+      <c r="K33">
+        <v>-0.01680767033794599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.004185834859437217</v>
+        <v>0.0173083383156603</v>
       </c>
       <c r="C34">
-        <v>-0.05275665271556211</v>
+        <v>-0.05012542256047695</v>
       </c>
       <c r="D34">
-        <v>-0.02282689209824871</v>
+        <v>-0.02160835635580254</v>
       </c>
       <c r="E34">
-        <v>-0.006766454254880312</v>
+        <v>-0.01506396700792071</v>
       </c>
       <c r="F34">
-        <v>-0.02106649234049099</v>
+        <v>-0.005887131259954916</v>
       </c>
       <c r="G34">
-        <v>-0.02684073246063684</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.005804584251774852</v>
+      </c>
+      <c r="H34">
+        <v>-0.0181206997760762</v>
+      </c>
+      <c r="I34">
+        <v>0.02597360294150512</v>
+      </c>
+      <c r="J34">
+        <v>0.008717700860946292</v>
+      </c>
+      <c r="K34">
+        <v>0.01148707994623325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.001841367327126259</v>
+        <v>0.01009707008966848</v>
       </c>
       <c r="C35">
-        <v>-0.03194532696947128</v>
+        <v>-0.04663246206749476</v>
       </c>
       <c r="D35">
-        <v>-0.01008613256417864</v>
+        <v>-0.02261189826609205</v>
       </c>
       <c r="E35">
-        <v>0.002362956121126567</v>
+        <v>0.006003985648917574</v>
       </c>
       <c r="F35">
-        <v>-0.01093550526782299</v>
+        <v>-0.004883578245690318</v>
       </c>
       <c r="G35">
-        <v>-0.03451356495727654</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.01302849306364595</v>
+      </c>
+      <c r="H35">
+        <v>-0.0486575057501456</v>
+      </c>
+      <c r="I35">
+        <v>0.1158564262163872</v>
+      </c>
+      <c r="J35">
+        <v>-0.1016189564750101</v>
+      </c>
+      <c r="K35">
+        <v>0.007797814697585175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.01223438338373798</v>
+        <v>0.01356020698379593</v>
       </c>
       <c r="C36">
-        <v>-0.05271993049170737</v>
+        <v>-0.046369270559661</v>
       </c>
       <c r="D36">
-        <v>-0.05684792050746527</v>
+        <v>-0.04398467860950363</v>
       </c>
       <c r="E36">
-        <v>-0.004810375881675573</v>
+        <v>0.008716641329124163</v>
       </c>
       <c r="F36">
-        <v>-0.01869580779977113</v>
+        <v>0.01136673817215325</v>
       </c>
       <c r="G36">
-        <v>-0.02820893411478275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.009708724946976012</v>
+      </c>
+      <c r="H36">
+        <v>0.01409651469266898</v>
+      </c>
+      <c r="I36">
+        <v>0.04110640553686473</v>
+      </c>
+      <c r="J36">
+        <v>-0.08288058007341916</v>
+      </c>
+      <c r="K36">
+        <v>0.01934653495434606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.03481418726440901</v>
+        <v>0.0104249622047156</v>
       </c>
       <c r="C38">
-        <v>-0.04767021543642649</v>
+        <v>-0.05665159466828516</v>
       </c>
       <c r="D38">
-        <v>-0.03838415589867559</v>
+        <v>-0.03699510944540465</v>
       </c>
       <c r="E38">
-        <v>-0.01411266290402946</v>
+        <v>0.04602255108512101</v>
       </c>
       <c r="F38">
-        <v>-0.01054156833525258</v>
+        <v>0.02545118533419795</v>
       </c>
       <c r="G38">
-        <v>-0.04765921627332208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.006217130109890202</v>
+      </c>
+      <c r="H38">
+        <v>-0.01535521105393678</v>
+      </c>
+      <c r="I38">
+        <v>0.04433198589305627</v>
+      </c>
+      <c r="J38">
+        <v>-0.06270630335979042</v>
+      </c>
+      <c r="K38">
+        <v>-0.06648334252852116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.002377865976942228</v>
+        <v>0.02469423030831149</v>
       </c>
       <c r="C39">
-        <v>-0.1289060293427728</v>
+        <v>-0.1303482600670499</v>
       </c>
       <c r="D39">
-        <v>-0.05754264932911132</v>
+        <v>-0.05954580465712973</v>
       </c>
       <c r="E39">
-        <v>-0.009058400749013162</v>
+        <v>0.008920038686253753</v>
       </c>
       <c r="F39">
-        <v>-0.01281326026358782</v>
+        <v>-0.01370479499569258</v>
       </c>
       <c r="G39">
-        <v>-0.06207205089079005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.00230811689613679</v>
+      </c>
+      <c r="H39">
+        <v>-0.03855234695890303</v>
+      </c>
+      <c r="I39">
+        <v>0.04760799893129847</v>
+      </c>
+      <c r="J39">
+        <v>-0.01020892143375237</v>
+      </c>
+      <c r="K39">
+        <v>0.08914463041879118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.004457868915266572</v>
+        <v>0.0146164016304051</v>
       </c>
       <c r="C40">
-        <v>-0.04481163245766145</v>
+        <v>-0.05952671843181718</v>
       </c>
       <c r="D40">
-        <v>-0.03300257079037952</v>
+        <v>-0.04501701289490433</v>
       </c>
       <c r="E40">
-        <v>0.1062268267894286</v>
+        <v>-0.003223299126145411</v>
       </c>
       <c r="F40">
-        <v>0.07952047004827045</v>
+        <v>-0.003240069245892276</v>
       </c>
       <c r="G40">
-        <v>-0.09089025998373193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.03460982399985007</v>
+      </c>
+      <c r="H40">
+        <v>-0.1452498299853249</v>
+      </c>
+      <c r="I40">
+        <v>0.02118125036750546</v>
+      </c>
+      <c r="J40">
+        <v>-0.03352556862619722</v>
+      </c>
+      <c r="K40">
+        <v>0.04466179417438354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01165309891610385</v>
+        <v>0.02221642960166306</v>
       </c>
       <c r="C41">
-        <v>-0.02877394869503011</v>
+        <v>-0.04796910425606567</v>
       </c>
       <c r="D41">
-        <v>-0.008709092182244705</v>
+        <v>-0.01497008799479607</v>
       </c>
       <c r="E41">
-        <v>-0.009631770234727452</v>
+        <v>-0.003130607430548385</v>
       </c>
       <c r="F41">
-        <v>-0.01377696953470781</v>
+        <v>-0.009138521973752088</v>
       </c>
       <c r="G41">
-        <v>0.04701516694785516</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01280616702620002</v>
+      </c>
+      <c r="H41">
+        <v>0.008685750899271146</v>
+      </c>
+      <c r="I41">
+        <v>0.009376360224748029</v>
+      </c>
+      <c r="J41">
+        <v>-0.02503399365433798</v>
+      </c>
+      <c r="K41">
+        <v>-0.02556500091164003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.005613119312661512</v>
+        <v>0.01921570301788674</v>
       </c>
       <c r="C43">
-        <v>-0.02964893379900253</v>
+        <v>-0.04518380426232766</v>
       </c>
       <c r="D43">
-        <v>-0.02680602676410125</v>
+        <v>-0.02932326194848339</v>
       </c>
       <c r="E43">
-        <v>-0.006600736134122785</v>
+        <v>0.002684326343548835</v>
       </c>
       <c r="F43">
-        <v>-0.001538652426415472</v>
+        <v>0.003528015472846051</v>
       </c>
       <c r="G43">
-        <v>0.01058317641375406</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01173566790567166</v>
+      </c>
+      <c r="H43">
+        <v>-0.0001560956471998779</v>
+      </c>
+      <c r="I43">
+        <v>0.02025966329641918</v>
+      </c>
+      <c r="J43">
+        <v>-0.03178485512662542</v>
+      </c>
+      <c r="K43">
+        <v>0.002794054874895706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.02009153846389466</v>
+        <v>0.01737025896903597</v>
       </c>
       <c r="C44">
-        <v>-0.1039512278327666</v>
+        <v>-0.09805813469305003</v>
       </c>
       <c r="D44">
-        <v>-0.03178606049859563</v>
+        <v>-0.05764416948610224</v>
       </c>
       <c r="E44">
-        <v>0.02233033303628972</v>
+        <v>0.0295079523431195</v>
       </c>
       <c r="F44">
-        <v>0.03188328640813189</v>
+        <v>0.05836593003146959</v>
       </c>
       <c r="G44">
-        <v>-0.07095832169327787</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03226949622979264</v>
+      </c>
+      <c r="H44">
+        <v>-0.0455625288896482</v>
+      </c>
+      <c r="I44">
+        <v>0.01743146404754329</v>
+      </c>
+      <c r="J44">
+        <v>-0.0488050198224165</v>
+      </c>
+      <c r="K44">
+        <v>0.04941303541552089</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.00830873778736594</v>
+        <v>0.004688384647507371</v>
       </c>
       <c r="C46">
-        <v>-0.06895627986926965</v>
+        <v>-0.06586195457834908</v>
       </c>
       <c r="D46">
-        <v>-0.0509472236831551</v>
+        <v>-0.02884335375170299</v>
       </c>
       <c r="E46">
-        <v>0.01280397376117231</v>
+        <v>0.0114394097126358</v>
       </c>
       <c r="F46">
-        <v>-0.02051265349777678</v>
+        <v>-0.01295869865823292</v>
       </c>
       <c r="G46">
-        <v>-0.02711931228402349</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.002143593213875389</v>
+      </c>
+      <c r="H46">
+        <v>-0.02454136290726127</v>
+      </c>
+      <c r="I46">
+        <v>0.04225718008336803</v>
+      </c>
+      <c r="J46">
+        <v>-0.08933425114874563</v>
+      </c>
+      <c r="K46">
+        <v>0.02594954576034518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.004455011148575955</v>
+        <v>0.02185933002045255</v>
       </c>
       <c r="C47">
-        <v>-0.06043241657160372</v>
+        <v>-0.07426195685709047</v>
       </c>
       <c r="D47">
-        <v>-0.05691337624221673</v>
+        <v>-0.04442108888887555</v>
       </c>
       <c r="E47">
-        <v>-0.02131734122587568</v>
+        <v>-0.01429355843742148</v>
       </c>
       <c r="F47">
-        <v>-0.05246965732879449</v>
+        <v>-0.008127088745510385</v>
       </c>
       <c r="G47">
-        <v>-0.01101821449610942</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.007477973934271861</v>
+      </c>
+      <c r="H47">
+        <v>0.002062906392633698</v>
+      </c>
+      <c r="I47">
+        <v>0.04000592276757227</v>
+      </c>
+      <c r="J47">
+        <v>-0.05953709396754403</v>
+      </c>
+      <c r="K47">
+        <v>-0.01516958036254962</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01242302818676201</v>
+        <v>0.01598646296405867</v>
       </c>
       <c r="C48">
-        <v>-0.0553271085262436</v>
+        <v>-0.04657451793958727</v>
       </c>
       <c r="D48">
-        <v>-0.06778986427396264</v>
+        <v>-0.05297585253567066</v>
       </c>
       <c r="E48">
-        <v>-0.01145418179083933</v>
+        <v>-0.01077507630644614</v>
       </c>
       <c r="F48">
-        <v>-0.0144048562476943</v>
+        <v>0.02331139478546018</v>
       </c>
       <c r="G48">
-        <v>-0.03328204489206634</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.005712888812122645</v>
+      </c>
+      <c r="H48">
+        <v>0.01976454732167683</v>
+      </c>
+      <c r="I48">
+        <v>0.05842439258700612</v>
+      </c>
+      <c r="J48">
+        <v>-0.1142049046475893</v>
+      </c>
+      <c r="K48">
+        <v>0.040653011827057</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02240145876126751</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.05084760626558604</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.0115090711110068</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.03178193742848214</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.0355976244601369</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.0648809349854195</v>
+      </c>
+      <c r="H49">
+        <v>-0.06768234345875992</v>
+      </c>
+      <c r="I49">
+        <v>0.0380958193474926</v>
+      </c>
+      <c r="J49">
+        <v>0.113628552948336</v>
+      </c>
+      <c r="K49">
+        <v>0.03936664027293478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.002606137381991486</v>
+        <v>0.01572176865063838</v>
       </c>
       <c r="C50">
-        <v>-0.06073190419353625</v>
+        <v>-0.07544390489057907</v>
       </c>
       <c r="D50">
-        <v>-0.02877109825899893</v>
+        <v>-0.03264718816612518</v>
       </c>
       <c r="E50">
-        <v>0.0001276860989235138</v>
+        <v>-0.006725141250669528</v>
       </c>
       <c r="F50">
-        <v>0.003667372463817758</v>
+        <v>0.0206153086947177</v>
       </c>
       <c r="G50">
-        <v>-0.01582803783897129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.005779872831760019</v>
+      </c>
+      <c r="H50">
+        <v>0.008594520097340441</v>
+      </c>
+      <c r="I50">
+        <v>0.05439775692857186</v>
+      </c>
+      <c r="J50">
+        <v>-0.04115251332091116</v>
+      </c>
+      <c r="K50">
+        <v>-0.04937951152543357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.006593753947847469</v>
+        <v>-0.004182939526515358</v>
       </c>
       <c r="C51">
-        <v>-0.07309653483829572</v>
+        <v>-0.0352625114059963</v>
       </c>
       <c r="D51">
-        <v>-0.03577983872028017</v>
+        <v>-0.0259641768360656</v>
       </c>
       <c r="E51">
-        <v>0.02879421780860392</v>
+        <v>0.02780376871822578</v>
       </c>
       <c r="F51">
-        <v>0.008763818261081363</v>
+        <v>0.005686515277801296</v>
       </c>
       <c r="G51">
-        <v>0.006373160972085986</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.024123326776734</v>
+      </c>
+      <c r="H51">
+        <v>-0.01486603265165898</v>
+      </c>
+      <c r="I51">
+        <v>0.03817046895146432</v>
+      </c>
+      <c r="J51">
+        <v>-0.1034582667298401</v>
+      </c>
+      <c r="K51">
+        <v>0.02855472196028615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.0378134189980116</v>
+        <v>0.06052928712613962</v>
       </c>
       <c r="C53">
-        <v>-0.1062607540449804</v>
+        <v>-0.131740322185839</v>
       </c>
       <c r="D53">
-        <v>-0.06517369288059473</v>
+        <v>-0.05750984639544302</v>
       </c>
       <c r="E53">
-        <v>-0.1170288485102926</v>
+        <v>-0.02828698009016034</v>
       </c>
       <c r="F53">
-        <v>-0.05019970413630397</v>
+        <v>-0.04945081783374262</v>
       </c>
       <c r="G53">
-        <v>0.1079719147049931</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03711915590951338</v>
+      </c>
+      <c r="H53">
+        <v>0.08976435346423423</v>
+      </c>
+      <c r="I53">
+        <v>-0.019153456401472</v>
+      </c>
+      <c r="J53">
+        <v>0.01752941539375789</v>
+      </c>
+      <c r="K53">
+        <v>-0.02441915058933848</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.003500250372363563</v>
+        <v>0.01588310200328318</v>
       </c>
       <c r="C54">
-        <v>-0.07099436520753098</v>
+        <v>-0.07081473349467275</v>
       </c>
       <c r="D54">
-        <v>-0.01404652359845367</v>
+        <v>-0.01186502406245431</v>
       </c>
       <c r="E54">
-        <v>-0.02475997705639267</v>
+        <v>-0.01005583074412626</v>
       </c>
       <c r="F54">
-        <v>-0.0002731646328165057</v>
+        <v>0.0006253432466813911</v>
       </c>
       <c r="G54">
-        <v>-0.01739456768588929</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.005593280343177579</v>
+      </c>
+      <c r="H54">
+        <v>-0.008263410520084707</v>
+      </c>
+      <c r="I54">
+        <v>0.0302293684478608</v>
+      </c>
+      <c r="J54">
+        <v>-0.05413941034982536</v>
+      </c>
+      <c r="K54">
+        <v>0.02739739339787731</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01290117793894345</v>
+        <v>0.03059396246137279</v>
       </c>
       <c r="C55">
-        <v>-0.07136607616386433</v>
+        <v>-0.08230773469755133</v>
       </c>
       <c r="D55">
-        <v>-0.06138845233335004</v>
+        <v>-0.05346593245854715</v>
       </c>
       <c r="E55">
-        <v>-0.05685047310014948</v>
+        <v>-0.02643474869445404</v>
       </c>
       <c r="F55">
-        <v>-0.03427529503944743</v>
+        <v>-0.02526509550282212</v>
       </c>
       <c r="G55">
-        <v>0.03096037623053889</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03065696466807658</v>
+      </c>
+      <c r="H55">
+        <v>0.03870148462168493</v>
+      </c>
+      <c r="I55">
+        <v>-0.011083863000454</v>
+      </c>
+      <c r="J55">
+        <v>-0.003142414977533542</v>
+      </c>
+      <c r="K55">
+        <v>0.0082253998323447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01403635600987608</v>
+        <v>0.04865400799920241</v>
       </c>
       <c r="C56">
-        <v>-0.1412868410771543</v>
+        <v>-0.15202991996627</v>
       </c>
       <c r="D56">
-        <v>-0.06391780333971125</v>
+        <v>-0.08063586702901333</v>
       </c>
       <c r="E56">
-        <v>-0.08823071238224291</v>
+        <v>-0.05626215970103778</v>
       </c>
       <c r="F56">
-        <v>-0.06491550505131329</v>
+        <v>-0.09309020745863608</v>
       </c>
       <c r="G56">
-        <v>0.1352328369167804</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.04440634822337809</v>
+      </c>
+      <c r="H56">
+        <v>0.1572660902178137</v>
+      </c>
+      <c r="I56">
+        <v>-0.0181124923431719</v>
+      </c>
+      <c r="J56">
+        <v>0.0407391162893722</v>
+      </c>
+      <c r="K56">
+        <v>-0.003600746504594684</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02578666121657811</v>
+        <v>0.01855767225050807</v>
       </c>
       <c r="C58">
-        <v>-0.2840443417752381</v>
+        <v>-0.1730148278252726</v>
       </c>
       <c r="D58">
-        <v>0.0345888577064445</v>
+        <v>-0.04438043281192044</v>
       </c>
       <c r="E58">
-        <v>0.1751280685193956</v>
+        <v>0.1452714339513136</v>
       </c>
       <c r="F58">
-        <v>0.2204476934323812</v>
+        <v>0.2166024117386621</v>
       </c>
       <c r="G58">
-        <v>0.006209707808677512</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.2489708214446434</v>
+      </c>
+      <c r="H58">
+        <v>0.0765938980826391</v>
+      </c>
+      <c r="I58">
+        <v>-0.02751729252227203</v>
+      </c>
+      <c r="J58">
+        <v>-0.1478826107535798</v>
+      </c>
+      <c r="K58">
+        <v>-0.09452455216658764</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2908554559965599</v>
+        <v>0.2888804598007405</v>
       </c>
       <c r="C59">
-        <v>0.001722724115007316</v>
+        <v>0.05184487471652052</v>
       </c>
       <c r="D59">
-        <v>0.0080693492704886</v>
+        <v>0.005776222863971322</v>
       </c>
       <c r="E59">
-        <v>0.06246080076895956</v>
+        <v>0.008563763947624587</v>
       </c>
       <c r="F59">
-        <v>-0.04565858857634896</v>
+        <v>0.01593911055343915</v>
       </c>
       <c r="G59">
-        <v>-0.003199806905709869</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.05369122357243</v>
+      </c>
+      <c r="H59">
+        <v>0.004406870045569266</v>
+      </c>
+      <c r="I59">
+        <v>-0.01858220488523327</v>
+      </c>
+      <c r="J59">
+        <v>0.00453185637452071</v>
+      </c>
+      <c r="K59">
+        <v>-0.02920734794611041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1121994966344698</v>
+        <v>0.1526190121191282</v>
       </c>
       <c r="C60">
-        <v>-0.1439269702260027</v>
+        <v>-0.1603100393820214</v>
       </c>
       <c r="D60">
-        <v>-0.08759956119155664</v>
+        <v>-0.04145711672766148</v>
       </c>
       <c r="E60">
-        <v>-0.1229076607170642</v>
+        <v>-0.1263088600518239</v>
       </c>
       <c r="F60">
-        <v>-0.1893146359736685</v>
+        <v>-0.09314420968608765</v>
       </c>
       <c r="G60">
-        <v>-0.2541651927398439</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.09373649709181356</v>
+      </c>
+      <c r="H60">
+        <v>-0.2474750372646511</v>
+      </c>
+      <c r="I60">
+        <v>-0.1856167899426864</v>
+      </c>
+      <c r="J60">
+        <v>0.1192804849012932</v>
+      </c>
+      <c r="K60">
+        <v>0.0246174184647263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.005594541775309938</v>
+        <v>0.02491688090284547</v>
       </c>
       <c r="C61">
-        <v>-0.08741397075349996</v>
+        <v>-0.09843887814667837</v>
       </c>
       <c r="D61">
-        <v>-0.0685334184594474</v>
+        <v>-0.05393244821709536</v>
       </c>
       <c r="E61">
-        <v>-0.02912887974548704</v>
+        <v>-0.009871915551206211</v>
       </c>
       <c r="F61">
-        <v>-0.0284874792993229</v>
+        <v>-0.0163110442296182</v>
       </c>
       <c r="G61">
-        <v>-0.06941710593807146</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01900435850528311</v>
+      </c>
+      <c r="H61">
+        <v>-0.02294939571738785</v>
+      </c>
+      <c r="I61">
+        <v>0.05748698385405458</v>
+      </c>
+      <c r="J61">
+        <v>-0.0187415613026956</v>
+      </c>
+      <c r="K61">
+        <v>0.03580476354576509</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.00256454716038525</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01501905369492209</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003702295795031518</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.02358730823433472</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.02685952057039004</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.004744586690854944</v>
+      </c>
+      <c r="H62">
+        <v>-0.01703014416870446</v>
+      </c>
+      <c r="I62">
+        <v>0.01839037846541615</v>
+      </c>
+      <c r="J62">
+        <v>-0.007706143802105224</v>
+      </c>
+      <c r="K62">
+        <v>-0.006447065059119178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.0001347552825527857</v>
+        <v>0.02661029598985174</v>
       </c>
       <c r="C63">
-        <v>-0.05757757867926457</v>
+        <v>-0.06336624953761577</v>
       </c>
       <c r="D63">
-        <v>-0.0345239658000785</v>
+        <v>-0.05893275292469303</v>
       </c>
       <c r="E63">
-        <v>-0.01760153986420667</v>
+        <v>-0.006930956981956816</v>
       </c>
       <c r="F63">
-        <v>-0.0005633483143680703</v>
+        <v>-0.008146465188229406</v>
       </c>
       <c r="G63">
-        <v>0.006121881973455778</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.005558906680574904</v>
+      </c>
+      <c r="H63">
+        <v>0.008225211343418895</v>
+      </c>
+      <c r="I63">
+        <v>0.05342100978144111</v>
+      </c>
+      <c r="J63">
+        <v>-0.04367743573474145</v>
+      </c>
+      <c r="K63">
+        <v>0.02051215526913528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.002581138794648879</v>
+        <v>0.01804145609880617</v>
       </c>
       <c r="C64">
-        <v>-0.09604973421636266</v>
+        <v>-0.0938511822965498</v>
       </c>
       <c r="D64">
-        <v>-0.07235951620880347</v>
+        <v>-0.0350768739056827</v>
       </c>
       <c r="E64">
-        <v>-0.01000193943436278</v>
+        <v>-0.02275103808860444</v>
       </c>
       <c r="F64">
-        <v>0.01304764977641949</v>
+        <v>0.04867896875849706</v>
       </c>
       <c r="G64">
-        <v>-0.03309150081951807</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.005085926744267419</v>
+      </c>
+      <c r="H64">
+        <v>-0.04782922583671681</v>
+      </c>
+      <c r="I64">
+        <v>0.03179148083871536</v>
+      </c>
+      <c r="J64">
+        <v>-0.03674709040085973</v>
+      </c>
+      <c r="K64">
+        <v>0.08462669807896629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.009799139720920735</v>
+        <v>0.03222884040141927</v>
       </c>
       <c r="C65">
-        <v>-0.08794608759384427</v>
+        <v>-0.09327899166647032</v>
       </c>
       <c r="D65">
-        <v>-0.03271643840765481</v>
+        <v>-0.02188093562011593</v>
       </c>
       <c r="E65">
-        <v>0.01902454184271521</v>
+        <v>0.01128513831946106</v>
       </c>
       <c r="F65">
-        <v>-0.01498046648261702</v>
+        <v>0.002866804209766875</v>
       </c>
       <c r="G65">
-        <v>-0.07910625761117103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01188123273945654</v>
+      </c>
+      <c r="H65">
+        <v>-0.08598831889318607</v>
+      </c>
+      <c r="I65">
+        <v>-0.009943880517956796</v>
+      </c>
+      <c r="J65">
+        <v>-0.00550863824787183</v>
+      </c>
+      <c r="K65">
+        <v>0.05752542142150624</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.00145980329818547</v>
+        <v>0.02179713436900677</v>
       </c>
       <c r="C66">
-        <v>-0.1758675805924233</v>
+        <v>-0.1716448134896869</v>
       </c>
       <c r="D66">
-        <v>-0.04725109423535894</v>
+        <v>-0.05074486726616777</v>
       </c>
       <c r="E66">
-        <v>0.02558243453898015</v>
+        <v>0.009999855683588138</v>
       </c>
       <c r="F66">
-        <v>-0.02400679329470646</v>
+        <v>-0.0119948056489699</v>
       </c>
       <c r="G66">
-        <v>-0.08932927826252912</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.009890818070998992</v>
+      </c>
+      <c r="H66">
+        <v>-0.03051203662980355</v>
+      </c>
+      <c r="I66">
+        <v>0.0620944727335603</v>
+      </c>
+      <c r="J66">
+        <v>-0.01592444073612036</v>
+      </c>
+      <c r="K66">
+        <v>0.06324089547680628</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.03518533234179413</v>
+        <v>0.01997752872942485</v>
       </c>
       <c r="C67">
-        <v>-0.02500062157631846</v>
+        <v>-0.04959351886390068</v>
       </c>
       <c r="D67">
-        <v>-0.05604846988691357</v>
+        <v>-0.03845432783307422</v>
       </c>
       <c r="E67">
-        <v>-0.04762098418140061</v>
+        <v>0.035197623778111</v>
       </c>
       <c r="F67">
-        <v>-0.02405779445718459</v>
+        <v>0.0009416846027290855</v>
       </c>
       <c r="G67">
-        <v>-0.05669175074726542</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03103362889532563</v>
+      </c>
+      <c r="H67">
+        <v>-0.03788424787306129</v>
+      </c>
+      <c r="I67">
+        <v>0.01088312162699552</v>
+      </c>
+      <c r="J67">
+        <v>-0.06006289704983888</v>
+      </c>
+      <c r="K67">
+        <v>-0.04910859053964944</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2962760045949784</v>
+        <v>0.2927271081085786</v>
       </c>
       <c r="C68">
-        <v>0.02494497977555512</v>
+        <v>0.07822686118629264</v>
       </c>
       <c r="D68">
-        <v>0.001306126975828651</v>
+        <v>0.02711461597608475</v>
       </c>
       <c r="E68">
-        <v>0.02549644644141165</v>
+        <v>-0.01459083261031231</v>
       </c>
       <c r="F68">
-        <v>-0.001366657869856324</v>
+        <v>0.02421839892525597</v>
       </c>
       <c r="G68">
-        <v>-0.01315938649938289</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03296552272013516</v>
+      </c>
+      <c r="H68">
+        <v>0.02422940130972073</v>
+      </c>
+      <c r="I68">
+        <v>0.01616092485024857</v>
+      </c>
+      <c r="J68">
+        <v>-0.03323055540366091</v>
+      </c>
+      <c r="K68">
+        <v>-0.03991622675874537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.007625625078569218</v>
+        <v>0.01032499621134946</v>
       </c>
       <c r="C69">
-        <v>-0.05807173488484424</v>
+        <v>-0.04773787184008004</v>
       </c>
       <c r="D69">
-        <v>-0.05757992005117512</v>
+        <v>-0.02569851154476732</v>
       </c>
       <c r="E69">
-        <v>-0.03321459421127032</v>
+        <v>0.002218501111407038</v>
       </c>
       <c r="F69">
-        <v>-0.007603258644183966</v>
+        <v>-0.01584970211199242</v>
       </c>
       <c r="G69">
-        <v>-0.02515711328061519</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.004951948270901235</v>
+      </c>
+      <c r="H69">
+        <v>-0.01696389200503419</v>
+      </c>
+      <c r="I69">
+        <v>0.005372277539031398</v>
+      </c>
+      <c r="J69">
+        <v>-0.03635204247630463</v>
+      </c>
+      <c r="K69">
+        <v>-0.02726419204524587</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2864031642674523</v>
+        <v>0.2745256318533057</v>
       </c>
       <c r="C71">
-        <v>0.03811327739175473</v>
+        <v>0.07929925290494994</v>
       </c>
       <c r="D71">
-        <v>0.0125361517370381</v>
+        <v>0.02237779493480767</v>
       </c>
       <c r="E71">
-        <v>0.02459363507215105</v>
+        <v>0.01293475832141506</v>
       </c>
       <c r="F71">
-        <v>0.0203239564991044</v>
+        <v>0.04898350753305231</v>
       </c>
       <c r="G71">
-        <v>-0.00156433830003679</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.0422199813467922</v>
+      </c>
+      <c r="H71">
+        <v>0.02463965447004185</v>
+      </c>
+      <c r="I71">
+        <v>0.02135076018724701</v>
+      </c>
+      <c r="J71">
+        <v>-0.05502422377271036</v>
+      </c>
+      <c r="K71">
+        <v>-0.1126578326989464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.01108696013273723</v>
+        <v>0.05354800944574258</v>
       </c>
       <c r="C72">
-        <v>-0.1472132352337942</v>
+        <v>-0.1368519819777172</v>
       </c>
       <c r="D72">
-        <v>-0.06964811445231095</v>
+        <v>-0.05052594221867877</v>
       </c>
       <c r="E72">
-        <v>-0.01945674850531669</v>
+        <v>-0.05628103530066451</v>
       </c>
       <c r="F72">
-        <v>0.04213323500531222</v>
+        <v>-0.01505814036343784</v>
       </c>
       <c r="G72">
-        <v>-0.09274978305367557</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02391227529659423</v>
+      </c>
+      <c r="H72">
+        <v>0.01162357995922244</v>
+      </c>
+      <c r="I72">
+        <v>0.03759921549095434</v>
+      </c>
+      <c r="J72">
+        <v>-0.03586090503162033</v>
+      </c>
+      <c r="K72">
+        <v>0.09509657276899934</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.0773405072863371</v>
+        <v>0.156650179480771</v>
       </c>
       <c r="C73">
-        <v>-0.1174858785631428</v>
+        <v>-0.1990669252601455</v>
       </c>
       <c r="D73">
-        <v>-0.1347973821813926</v>
+        <v>-0.08425364717082592</v>
       </c>
       <c r="E73">
-        <v>-0.1958593279564296</v>
+        <v>-0.08240333470208908</v>
       </c>
       <c r="F73">
-        <v>-0.1980532573769229</v>
+        <v>-0.1341257552410528</v>
       </c>
       <c r="G73">
-        <v>-0.3572804946839034</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1877717174165581</v>
+      </c>
+      <c r="H73">
+        <v>-0.3855795802601544</v>
+      </c>
+      <c r="I73">
+        <v>-0.2448690657436587</v>
+      </c>
+      <c r="J73">
+        <v>0.1416787616795807</v>
+      </c>
+      <c r="K73">
+        <v>-0.1382133115461321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.0146423080123682</v>
+        <v>0.03824610954923716</v>
       </c>
       <c r="C74">
-        <v>-0.08292082630354593</v>
+        <v>-0.09800153987298524</v>
       </c>
       <c r="D74">
-        <v>-0.07020612984759367</v>
+        <v>-0.0442303623907831</v>
       </c>
       <c r="E74">
-        <v>-0.06556355455325213</v>
+        <v>-0.02330074422716726</v>
       </c>
       <c r="F74">
-        <v>-0.0442286194185156</v>
+        <v>-0.005021890650996336</v>
       </c>
       <c r="G74">
-        <v>0.05851023183551292</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.03210304556615218</v>
+      </c>
+      <c r="H74">
+        <v>0.05674451372285653</v>
+      </c>
+      <c r="I74">
+        <v>-0.01495834137973534</v>
+      </c>
+      <c r="J74">
+        <v>-0.02780444596552337</v>
+      </c>
+      <c r="K74">
+        <v>0.01426058911323316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03738293884016246</v>
+        <v>0.06452558444836368</v>
       </c>
       <c r="C75">
-        <v>-0.1410860182392538</v>
+        <v>-0.1632672377688664</v>
       </c>
       <c r="D75">
-        <v>-0.06884428124804429</v>
+        <v>-0.08385024789596715</v>
       </c>
       <c r="E75">
-        <v>-0.1401491102255963</v>
+        <v>-0.0420053764643163</v>
       </c>
       <c r="F75">
-        <v>-0.01802416287315185</v>
+        <v>-0.02997667338882581</v>
       </c>
       <c r="G75">
-        <v>0.1899841901315379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1004107373791901</v>
+      </c>
+      <c r="H75">
+        <v>0.2143068038682676</v>
+      </c>
+      <c r="I75">
+        <v>0.02991878615655024</v>
+      </c>
+      <c r="J75">
+        <v>0.04422838217666841</v>
+      </c>
+      <c r="K75">
+        <v>-0.1311870352436381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.0125656436113946</v>
+        <v>0.0454812035220612</v>
       </c>
       <c r="C76">
-        <v>-0.1036222310350329</v>
+        <v>-0.1250692950094923</v>
       </c>
       <c r="D76">
-        <v>-0.06246287075298266</v>
+        <v>-0.07459061303303574</v>
       </c>
       <c r="E76">
-        <v>-0.08357724641849</v>
+        <v>-0.02184563896252379</v>
       </c>
       <c r="F76">
-        <v>-0.05140286399956839</v>
+        <v>-0.05824734721448103</v>
       </c>
       <c r="G76">
-        <v>0.06968053311632663</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05867154376480628</v>
+      </c>
+      <c r="H76">
+        <v>0.07667856950355857</v>
+      </c>
+      <c r="I76">
+        <v>0.01288210803856633</v>
+      </c>
+      <c r="J76">
+        <v>0.04363595871741486</v>
+      </c>
+      <c r="K76">
+        <v>0.02259606802968517</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08785950937929307</v>
+        <v>0.05393969747622299</v>
       </c>
       <c r="C77">
-        <v>-0.3558810871709569</v>
+        <v>-0.4033024718311647</v>
       </c>
       <c r="D77">
-        <v>0.8399331191176653</v>
+        <v>0.8981186175809014</v>
       </c>
       <c r="E77">
-        <v>-0.2955163382087985</v>
+        <v>-0.008692825479959095</v>
       </c>
       <c r="F77">
-        <v>-0.121353699022073</v>
+        <v>-0.01578051429166178</v>
       </c>
       <c r="G77">
-        <v>-0.01449469654536788</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.06881643302303768</v>
+      </c>
+      <c r="H77">
+        <v>0.0372396609945778</v>
+      </c>
+      <c r="I77">
+        <v>0.085201749110716</v>
+      </c>
+      <c r="J77">
+        <v>0.002732539297553111</v>
+      </c>
+      <c r="K77">
+        <v>-0.02157671430637071</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02821053811197936</v>
+        <v>0.03842065248614646</v>
       </c>
       <c r="C78">
-        <v>-0.123032027124111</v>
+        <v>-0.1121021002460227</v>
       </c>
       <c r="D78">
-        <v>-0.167536584216121</v>
+        <v>-0.09291769437121435</v>
       </c>
       <c r="E78">
-        <v>0.09097036640463023</v>
+        <v>0.03217927095226897</v>
       </c>
       <c r="F78">
-        <v>-0.1140641284346521</v>
+        <v>-0.04430152372063889</v>
       </c>
       <c r="G78">
-        <v>0.1105589186678267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.02109510095770362</v>
+      </c>
+      <c r="H78">
+        <v>0.1136043195442959</v>
+      </c>
+      <c r="I78">
+        <v>0.0009348892736121041</v>
+      </c>
+      <c r="J78">
+        <v>-0.06625190256619601</v>
+      </c>
+      <c r="K78">
+        <v>0.06604942085191103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02431619457002502</v>
+        <v>0.05778524310745419</v>
       </c>
       <c r="C79">
-        <v>-0.1557451164927237</v>
+        <v>-0.1397921139883458</v>
       </c>
       <c r="D79">
-        <v>-0.1087296252453135</v>
+        <v>-0.06778016736862406</v>
       </c>
       <c r="E79">
-        <v>-0.09977891305578966</v>
+        <v>-0.02328434422935942</v>
       </c>
       <c r="F79">
-        <v>-0.07910289184883702</v>
+        <v>-0.05773986464589514</v>
       </c>
       <c r="G79">
-        <v>0.2934025518293479</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.03523493488808115</v>
+      </c>
+      <c r="H79">
+        <v>0.2675671061662094</v>
+      </c>
+      <c r="I79">
+        <v>-0.004362441575222168</v>
+      </c>
+      <c r="J79">
+        <v>-0.0325109581645786</v>
+      </c>
+      <c r="K79">
+        <v>-0.05975834947577062</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.001480786419505313</v>
+        <v>0.01975449711693863</v>
       </c>
       <c r="C80">
-        <v>-0.06221991244313747</v>
+        <v>-0.04627176212808347</v>
       </c>
       <c r="D80">
-        <v>-0.04170185916429511</v>
+        <v>-0.03737219063847518</v>
       </c>
       <c r="E80">
-        <v>0.05010776553341707</v>
+        <v>0.01026070309325153</v>
       </c>
       <c r="F80">
-        <v>-0.001096029920038995</v>
+        <v>-0.02129177942656115</v>
       </c>
       <c r="G80">
-        <v>-0.008824777974588598</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.06355203209043848</v>
+      </c>
+      <c r="H80">
+        <v>-0.07913447847330492</v>
+      </c>
+      <c r="I80">
+        <v>-0.024416230889732</v>
+      </c>
+      <c r="J80">
+        <v>0.01886052505395232</v>
+      </c>
+      <c r="K80">
+        <v>-0.01907503895773701</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.003672875294962135</v>
+        <v>0.01661679610558803</v>
       </c>
       <c r="C81">
-        <v>-0.08120456739077589</v>
+        <v>-0.09774888771413749</v>
       </c>
       <c r="D81">
-        <v>-0.06990968516460527</v>
+        <v>-0.05693731454843119</v>
       </c>
       <c r="E81">
-        <v>-0.07895164212013879</v>
+        <v>-0.02221963520409543</v>
       </c>
       <c r="F81">
-        <v>-0.05196346691150387</v>
+        <v>-0.03611531551986531</v>
       </c>
       <c r="G81">
-        <v>0.1023804218875851</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.0208250938712715</v>
+      </c>
+      <c r="H81">
+        <v>0.1164974674905272</v>
+      </c>
+      <c r="I81">
+        <v>0.01983774947217054</v>
+      </c>
+      <c r="J81">
+        <v>-0.04403349192765506</v>
+      </c>
+      <c r="K81">
+        <v>-0.04016588907894528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01876557761077689</v>
+        <v>0.04729405929665564</v>
       </c>
       <c r="C82">
-        <v>-0.0789140106895985</v>
+        <v>-0.107692909222867</v>
       </c>
       <c r="D82">
-        <v>-0.0720452387366781</v>
+        <v>-0.06523951616392966</v>
       </c>
       <c r="E82">
-        <v>-0.09361288067159457</v>
+        <v>-0.01572426822988334</v>
       </c>
       <c r="F82">
-        <v>-0.05617273394061518</v>
+        <v>-0.06489686590846357</v>
       </c>
       <c r="G82">
-        <v>0.04761113956853277</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.04581590258170309</v>
+      </c>
+      <c r="H82">
+        <v>0.08036532304299962</v>
+      </c>
+      <c r="I82">
+        <v>0.02490560339142843</v>
+      </c>
+      <c r="J82">
+        <v>0.02526353760539063</v>
+      </c>
+      <c r="K82">
+        <v>-0.01179278684565486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.006345350844221216</v>
+        <v>-0.0002838436917491198</v>
       </c>
       <c r="C83">
-        <v>-0.003033777230468868</v>
+        <v>0.02164037973738014</v>
       </c>
       <c r="D83">
-        <v>0.1257225675511381</v>
+        <v>0.05468482168839438</v>
       </c>
       <c r="E83">
-        <v>0.5690308655370642</v>
+        <v>-0.1445563204570109</v>
       </c>
       <c r="F83">
-        <v>-0.7165886035794603</v>
+        <v>-0.6697244450407729</v>
       </c>
       <c r="G83">
-        <v>0.1255543418420377</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.6755414655876856</v>
+      </c>
+      <c r="H83">
+        <v>-0.007951115212215479</v>
+      </c>
+      <c r="I83">
+        <v>0.0004436028168717282</v>
+      </c>
+      <c r="J83">
+        <v>0.1125143130347657</v>
+      </c>
+      <c r="K83">
+        <v>0.05161450227456375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.004393737885118917</v>
+        <v>0.01436338104192133</v>
       </c>
       <c r="C84">
-        <v>-0.09446696192894531</v>
+        <v>-0.0622969839358172</v>
       </c>
       <c r="D84">
-        <v>-0.02727366394233061</v>
+        <v>-0.08687082503690775</v>
       </c>
       <c r="E84">
-        <v>0.07323769618834906</v>
+        <v>0.3125704737359666</v>
       </c>
       <c r="F84">
-        <v>0.1570311588006943</v>
+        <v>0.06250779327830235</v>
       </c>
       <c r="G84">
-        <v>0.008732593953146723</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.06552306568697484</v>
+      </c>
+      <c r="H84">
+        <v>-0.1310808487618408</v>
+      </c>
+      <c r="I84">
+        <v>0.6423702846827053</v>
+      </c>
+      <c r="J84">
+        <v>0.5945462371346042</v>
+      </c>
+      <c r="K84">
+        <v>-0.1570155421501631</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.003419480429423649</v>
+        <v>0.03101941160888284</v>
       </c>
       <c r="C85">
-        <v>-0.1037381042691456</v>
+        <v>-0.1146479608127903</v>
       </c>
       <c r="D85">
-        <v>-0.07187559592714941</v>
+        <v>-0.08029036683048427</v>
       </c>
       <c r="E85">
-        <v>-0.08709238011708334</v>
+        <v>-0.02893408115380978</v>
       </c>
       <c r="F85">
-        <v>-0.06727097407386966</v>
+        <v>-0.0934339392153809</v>
       </c>
       <c r="G85">
-        <v>0.2051367490616331</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.08876587038716319</v>
+      </c>
+      <c r="H85">
+        <v>0.2246426305618838</v>
+      </c>
+      <c r="I85">
+        <v>0.005171274131086684</v>
+      </c>
+      <c r="J85">
+        <v>0.05049819510060786</v>
+      </c>
+      <c r="K85">
+        <v>-0.07156894352862372</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01714705707059295</v>
+        <v>0.01461315142268621</v>
       </c>
       <c r="C86">
-        <v>-0.08140333328363719</v>
+        <v>-0.07805226924311266</v>
       </c>
       <c r="D86">
-        <v>0.009459075469735168</v>
+        <v>-0.03070747059018736</v>
       </c>
       <c r="E86">
-        <v>0.01190004547199623</v>
+        <v>0.06205767213370421</v>
       </c>
       <c r="F86">
-        <v>0.02183534278211069</v>
+        <v>0.02547727572579242</v>
       </c>
       <c r="G86">
-        <v>-0.0859322602325039</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06699638956574348</v>
+      </c>
+      <c r="H86">
+        <v>0.04868406896796484</v>
+      </c>
+      <c r="I86">
+        <v>-0.08368951175394072</v>
+      </c>
+      <c r="J86">
+        <v>-0.08023343599633079</v>
+      </c>
+      <c r="K86">
+        <v>-0.1381173798476794</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.01994443401076795</v>
+        <v>0.02597743762577723</v>
       </c>
       <c r="C87">
-        <v>-0.1666248501799463</v>
+        <v>-0.1183385137789307</v>
       </c>
       <c r="D87">
-        <v>-0.02843659540080411</v>
+        <v>-0.01971901757613494</v>
       </c>
       <c r="E87">
-        <v>0.09127720692118864</v>
+        <v>-0.02958028550125201</v>
       </c>
       <c r="F87">
-        <v>0.06798057532207102</v>
+        <v>0.04079490345015364</v>
       </c>
       <c r="G87">
-        <v>0.0150711162919708</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.03698399943179533</v>
+      </c>
+      <c r="H87">
+        <v>0.01364805119397641</v>
+      </c>
+      <c r="I87">
+        <v>0.04309693938700685</v>
+      </c>
+      <c r="J87">
+        <v>-0.01058181921993166</v>
+      </c>
+      <c r="K87">
+        <v>0.1009226212591861</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.01097395052148137</v>
+        <v>0.03888906823550063</v>
       </c>
       <c r="C88">
-        <v>-0.03507526893744033</v>
+        <v>-0.05949829654412276</v>
       </c>
       <c r="D88">
-        <v>-0.03968236225809133</v>
+        <v>-0.03844218970903082</v>
       </c>
       <c r="E88">
-        <v>-0.05298208955213154</v>
+        <v>-0.01928125979638113</v>
       </c>
       <c r="F88">
-        <v>-0.01404496460556781</v>
+        <v>-0.002704424478227894</v>
       </c>
       <c r="G88">
-        <v>-0.01290823743534325</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02197951457557147</v>
+      </c>
+      <c r="H88">
+        <v>-0.008158222428602159</v>
+      </c>
+      <c r="I88">
+        <v>-0.01293795270003024</v>
+      </c>
+      <c r="J88">
+        <v>-0.01429090868403279</v>
+      </c>
+      <c r="K88">
+        <v>0.01740508723780115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4081057581061076</v>
+        <v>0.3905383889155765</v>
       </c>
       <c r="C89">
-        <v>0.07442005707533142</v>
+        <v>0.1233148679104208</v>
       </c>
       <c r="D89">
-        <v>-0.06832330776310497</v>
+        <v>0.03880043213403299</v>
       </c>
       <c r="E89">
-        <v>0.06256677100403231</v>
+        <v>0.00270404947492104</v>
       </c>
       <c r="F89">
-        <v>0.08509077438292838</v>
+        <v>0.06169915877587204</v>
       </c>
       <c r="G89">
-        <v>0.0646377562679776</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.008560324390574406</v>
+      </c>
+      <c r="H89">
+        <v>-0.02522960637433701</v>
+      </c>
+      <c r="I89">
+        <v>0.05679759086451156</v>
+      </c>
+      <c r="J89">
+        <v>0.0500161448705143</v>
+      </c>
+      <c r="K89">
+        <v>0.7372003774447499</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3125278905856779</v>
+        <v>0.316434205155387</v>
       </c>
       <c r="C90">
-        <v>0.01818803397069112</v>
+        <v>0.0793093442591411</v>
       </c>
       <c r="D90">
-        <v>-0.004564032804329621</v>
+        <v>0.02011063781870695</v>
       </c>
       <c r="E90">
-        <v>0.05478737297014756</v>
+        <v>0.01147488829600928</v>
       </c>
       <c r="F90">
-        <v>-0.04404944551959978</v>
+        <v>0.01328713645213353</v>
       </c>
       <c r="G90">
-        <v>-0.01614731215346814</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.028312580239894</v>
+      </c>
+      <c r="H90">
+        <v>0.002372187098241401</v>
+      </c>
+      <c r="I90">
+        <v>0.01000221625665126</v>
+      </c>
+      <c r="J90">
+        <v>0.004669588289478408</v>
+      </c>
+      <c r="K90">
+        <v>-0.1037813022391241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02142702855681436</v>
+        <v>0.05618507215272139</v>
       </c>
       <c r="C91">
-        <v>-0.07605070034644887</v>
+        <v>-0.0782753509636757</v>
       </c>
       <c r="D91">
-        <v>-0.05727645061251962</v>
+        <v>-0.0529537729207967</v>
       </c>
       <c r="E91">
-        <v>-0.04722100459060224</v>
+        <v>-0.04305275664758912</v>
       </c>
       <c r="F91">
-        <v>-0.05543586727483743</v>
+        <v>-0.0563205992445658</v>
       </c>
       <c r="G91">
-        <v>0.08629054944240787</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.004590866499913055</v>
+      </c>
+      <c r="H91">
+        <v>0.08469368517391167</v>
+      </c>
+      <c r="I91">
+        <v>-0.01058409936884501</v>
+      </c>
+      <c r="J91">
+        <v>0.031991527416334</v>
+      </c>
+      <c r="K91">
+        <v>-0.005353014072084777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3769125008137197</v>
+        <v>0.3504856807440969</v>
       </c>
       <c r="C92">
-        <v>0.06088967767327197</v>
+        <v>0.1246738134976818</v>
       </c>
       <c r="D92">
-        <v>0.01917430091412424</v>
+        <v>0.05594076658469541</v>
       </c>
       <c r="E92">
-        <v>-0.01404821195961025</v>
+        <v>0.004928614994825662</v>
       </c>
       <c r="F92">
-        <v>0.1209722260609717</v>
+        <v>0.06475620691903934</v>
       </c>
       <c r="G92">
-        <v>0.0027180554977977</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.009739077839233572</v>
+      </c>
+      <c r="H92">
+        <v>0.01117298884644797</v>
+      </c>
+      <c r="I92">
+        <v>0.03364496124370448</v>
+      </c>
+      <c r="J92">
+        <v>-0.06653137562628876</v>
+      </c>
+      <c r="K92">
+        <v>-0.1376352232075851</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3057373251262934</v>
+        <v>0.3077308797729318</v>
       </c>
       <c r="C93">
-        <v>0.07365175408297794</v>
+        <v>0.1231550347229307</v>
       </c>
       <c r="D93">
-        <v>-0.007370136585815331</v>
+        <v>0.007880209439713697</v>
       </c>
       <c r="E93">
-        <v>0.07833695638352552</v>
+        <v>0.03211635978258105</v>
       </c>
       <c r="F93">
-        <v>0.04675702930627139</v>
+        <v>0.02696949857577685</v>
       </c>
       <c r="G93">
-        <v>-0.002703086588084496</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03500231975167552</v>
+      </c>
+      <c r="H93">
+        <v>0.03953380973107367</v>
+      </c>
+      <c r="I93">
+        <v>0.006312906765873657</v>
+      </c>
+      <c r="J93">
+        <v>-0.02849862406931294</v>
+      </c>
+      <c r="K93">
+        <v>-0.1242950464332957</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.03031634070587088</v>
+        <v>0.08298473213895002</v>
       </c>
       <c r="C94">
-        <v>-0.1890097368212795</v>
+        <v>-0.1628938347667202</v>
       </c>
       <c r="D94">
-        <v>-0.1244900288990015</v>
+        <v>-0.1131179936916108</v>
       </c>
       <c r="E94">
-        <v>-0.1451616361261618</v>
+        <v>-0.04681935409284136</v>
       </c>
       <c r="F94">
-        <v>0.01212427595947882</v>
+        <v>-0.1004774484210685</v>
       </c>
       <c r="G94">
-        <v>0.5968751560418707</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.08246305401797902</v>
+      </c>
+      <c r="H94">
+        <v>0.5246656785671251</v>
+      </c>
+      <c r="I94">
+        <v>-0.09568029833417346</v>
+      </c>
+      <c r="J94">
+        <v>0.2535275942363381</v>
+      </c>
+      <c r="K94">
+        <v>0.05926955274274663</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02058601779743847</v>
+        <v>0.0436879936955808</v>
       </c>
       <c r="C95">
-        <v>-0.1232394411674297</v>
+        <v>-0.1325350849493016</v>
       </c>
       <c r="D95">
-        <v>-0.05609916120240843</v>
+        <v>-0.06447774869093734</v>
       </c>
       <c r="E95">
-        <v>-0.07182688682821378</v>
+        <v>-0.003370801163572202</v>
       </c>
       <c r="F95">
-        <v>-0.1094015620665745</v>
+        <v>-0.03203613950091209</v>
       </c>
       <c r="G95">
-        <v>-0.0250455754913032</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.08214193886045319</v>
+      </c>
+      <c r="H95">
+        <v>-0.04261627806788192</v>
+      </c>
+      <c r="I95">
+        <v>0.09784564043175638</v>
+      </c>
+      <c r="J95">
+        <v>0.04597005984685964</v>
+      </c>
+      <c r="K95">
+        <v>0.1844472234681717</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.002149849464583422</v>
+        <v>0.02109095524280781</v>
       </c>
       <c r="C97">
-        <v>-0.001427487933442285</v>
+        <v>-0.02687097207202427</v>
       </c>
       <c r="D97">
-        <v>-0.0001785795798733058</v>
+        <v>0.008394063647412024</v>
       </c>
       <c r="E97">
-        <v>-0.003417707924536307</v>
+        <v>0.05579795590049168</v>
       </c>
       <c r="F97">
-        <v>0.003999700316858513</v>
+        <v>-0.003613249327300065</v>
       </c>
       <c r="G97">
-        <v>-0.006734157013244029</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.02474028750586551</v>
+      </c>
+      <c r="H97">
+        <v>-0.032434306486926</v>
+      </c>
+      <c r="I97">
+        <v>-0.03239720282897365</v>
+      </c>
+      <c r="J97">
+        <v>-0.03299731439233527</v>
+      </c>
+      <c r="K97">
+        <v>0.0409872658094914</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08651783423310325</v>
+        <v>0.1389300308322622</v>
       </c>
       <c r="C98">
-        <v>-0.1530869514335369</v>
+        <v>-0.1602759035116679</v>
       </c>
       <c r="D98">
-        <v>-0.1521128653472739</v>
+        <v>-0.08941697542643087</v>
       </c>
       <c r="E98">
-        <v>-0.1198017211787642</v>
+        <v>-0.1065202619643327</v>
       </c>
       <c r="F98">
-        <v>-0.1203563244877151</v>
+        <v>-0.1385051773905983</v>
       </c>
       <c r="G98">
-        <v>-0.2228698664097414</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1574021668352923</v>
+      </c>
+      <c r="H98">
+        <v>-0.315441048182828</v>
+      </c>
+      <c r="I98">
+        <v>-0.2290755700551394</v>
+      </c>
+      <c r="J98">
+        <v>0.1757110844685781</v>
+      </c>
+      <c r="K98">
+        <v>-0.1337352540823726</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02780386085546381</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.06241735582847056</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.002314113486556752</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.8810944835374568</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.2800942542539846</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.07413420527633019</v>
+      </c>
+      <c r="H99">
+        <v>-0.005154966401260237</v>
+      </c>
+      <c r="I99">
+        <v>-0.2637469597114819</v>
+      </c>
+      <c r="J99">
+        <v>-0.1111858732351048</v>
+      </c>
+      <c r="K99">
+        <v>0.0750206273051657</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.0068654046100101</v>
+        <v>0.0175117359912711</v>
       </c>
       <c r="C101">
-        <v>-0.08411667915326819</v>
+        <v>-0.08149657599159923</v>
       </c>
       <c r="D101">
-        <v>-0.04975641235546283</v>
+        <v>-0.04869672938678475</v>
       </c>
       <c r="E101">
-        <v>0.005386756065810705</v>
+        <v>-0.01928201459679532</v>
       </c>
       <c r="F101">
-        <v>-0.03720220091132554</v>
+        <v>-0.02817865783723775</v>
       </c>
       <c r="G101">
-        <v>-0.0869326878925071</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.02818436733747336</v>
+      </c>
+      <c r="H101">
+        <v>-0.127467083639632</v>
+      </c>
+      <c r="I101">
+        <v>0.1920830719839468</v>
+      </c>
+      <c r="J101">
+        <v>-0.2002251827400544</v>
+      </c>
+      <c r="K101">
+        <v>0.03544401017437784</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.00446434855401188</v>
+        <v>0.002141727406241083</v>
       </c>
       <c r="C102">
-        <v>-0.01431452470798402</v>
+        <v>-0.005678620247477968</v>
       </c>
       <c r="D102">
-        <v>0.003477275881981474</v>
+        <v>0.002979304545501329</v>
       </c>
       <c r="E102">
-        <v>-0.01814902501205494</v>
+        <v>-0.002506400853626287</v>
       </c>
       <c r="F102">
-        <v>-0.01382270733490044</v>
+        <v>-0.002440516635434895</v>
       </c>
       <c r="G102">
-        <v>0.01167362220727886</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.002216817706882373</v>
+      </c>
+      <c r="H102">
+        <v>0.004464215078934151</v>
+      </c>
+      <c r="I102">
+        <v>0.003250287191348095</v>
+      </c>
+      <c r="J102">
+        <v>-0.006319264194702359</v>
+      </c>
+      <c r="K102">
+        <v>0.01493583169683247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
